--- a/詳細設計書.xlsx
+++ b/詳細設計書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" tabRatio="774" firstSheet="6" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" tabRatio="774" firstSheet="12" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="32" r:id="rId1"/>
@@ -4529,7 +4529,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
@@ -4766,6 +4766,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9271,7 +9274,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FT43"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="X17" sqref="X17"/>
     </sheetView>
   </sheetViews>
@@ -12463,8 +12466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -12695,8 +12698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="O34" sqref="O34:O36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -13093,8 +13096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -13625,8 +13628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -13854,8 +13857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G78" sqref="G78"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -14007,11 +14010,11 @@
       <c r="F10" s="70" t="s">
         <v>215</v>
       </c>
-      <c r="G10" s="70" t="s">
+      <c r="G10" s="151" t="s">
         <v>54</v>
       </c>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
+      <c r="H10" s="158"/>
+      <c r="I10" s="152"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="70" t="s">
@@ -14209,11 +14212,11 @@
       <c r="F23" s="70" t="s">
         <v>215</v>
       </c>
-      <c r="G23" s="70" t="s">
+      <c r="G23" s="151" t="s">
         <v>54</v>
       </c>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
+      <c r="H23" s="158"/>
+      <c r="I23" s="152"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="70" t="s">
@@ -14565,11 +14568,11 @@
       <c r="F41" s="70" t="s">
         <v>215</v>
       </c>
-      <c r="G41" s="70" t="s">
+      <c r="G41" s="151" t="s">
         <v>54</v>
       </c>
-      <c r="H41" s="70"/>
-      <c r="I41" s="70"/>
+      <c r="H41" s="158"/>
+      <c r="I41" s="152"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="70" t="s">
@@ -14912,11 +14915,11 @@
       <c r="F58" s="70" t="s">
         <v>215</v>
       </c>
-      <c r="G58" s="70" t="s">
+      <c r="G58" s="151" t="s">
         <v>54</v>
       </c>
-      <c r="H58" s="70"/>
-      <c r="I58" s="70"/>
+      <c r="H58" s="158"/>
+      <c r="I58" s="152"/>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="70" t="s">
@@ -15272,7 +15275,7 @@
       <c r="I72" s="70"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="16">
     <mergeCell ref="B59:I59"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="B23:E23"/>
@@ -15280,11 +15283,15 @@
     <mergeCell ref="B41:E41"/>
     <mergeCell ref="B42:I42"/>
     <mergeCell ref="B58:E58"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="G58:I58"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B3:I3"/>
     <mergeCell ref="G2:I2"/>
+    <mergeCell ref="G10:I10"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15296,7 +15303,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D186"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B189" sqref="B189"/>
     </sheetView>
   </sheetViews>
@@ -15344,10 +15351,10 @@
       <c r="A4" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="158" t="s">
+      <c r="B4" s="159" t="s">
         <v>253</v>
       </c>
-      <c r="C4" s="159"/>
+      <c r="C4" s="160"/>
       <c r="D4" s="105" t="s">
         <v>8</v>
       </c>
@@ -15474,10 +15481,10 @@
       <c r="A21" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="158" t="s">
+      <c r="B21" s="159" t="s">
         <v>253</v>
       </c>
-      <c r="C21" s="159"/>
+      <c r="C21" s="160"/>
       <c r="D21" s="105" t="s">
         <v>8</v>
       </c>
@@ -15654,10 +15661,10 @@
       <c r="A43" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="B43" s="158" t="s">
+      <c r="B43" s="159" t="s">
         <v>253</v>
       </c>
-      <c r="C43" s="159"/>
+      <c r="C43" s="160"/>
       <c r="D43" s="105" t="s">
         <v>8</v>
       </c>
@@ -16853,41 +16860,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="167" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="167"/>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
-      <c r="F1" s="167"/>
-      <c r="G1" s="167"/>
-      <c r="H1" s="167"/>
-      <c r="I1" s="167"/>
-      <c r="J1" s="167"/>
-      <c r="K1" s="167"/>
-      <c r="L1" s="167"/>
-      <c r="M1" s="167"/>
-      <c r="N1" s="167"/>
-      <c r="O1" s="167"/>
-      <c r="P1" s="167"/>
-      <c r="Q1" s="167"/>
-      <c r="R1" s="167"/>
-      <c r="S1" s="167"/>
-      <c r="T1" s="167"/>
-      <c r="U1" s="167"/>
-      <c r="V1" s="167"/>
-      <c r="W1" s="167"/>
-      <c r="X1" s="167"/>
-      <c r="Y1" s="167"/>
-      <c r="Z1" s="167"/>
-      <c r="AA1" s="167"/>
-      <c r="AB1" s="167"/>
-      <c r="AC1" s="167"/>
-      <c r="AD1" s="167"/>
-      <c r="AE1" s="167"/>
-      <c r="AF1" s="167"/>
-      <c r="AG1" s="168"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="168"/>
+      <c r="M1" s="168"/>
+      <c r="N1" s="168"/>
+      <c r="O1" s="168"/>
+      <c r="P1" s="168"/>
+      <c r="Q1" s="168"/>
+      <c r="R1" s="168"/>
+      <c r="S1" s="168"/>
+      <c r="T1" s="168"/>
+      <c r="U1" s="168"/>
+      <c r="V1" s="168"/>
+      <c r="W1" s="168"/>
+      <c r="X1" s="168"/>
+      <c r="Y1" s="168"/>
+      <c r="Z1" s="168"/>
+      <c r="AA1" s="168"/>
+      <c r="AB1" s="168"/>
+      <c r="AC1" s="168"/>
+      <c r="AD1" s="168"/>
+      <c r="AE1" s="168"/>
+      <c r="AF1" s="168"/>
+      <c r="AG1" s="169"/>
     </row>
     <row r="2" spans="1:177" s="38" customFormat="1" ht="12">
       <c r="A2" s="140" t="s">
@@ -16976,56 +16983,56 @@
       <c r="AG3" s="141"/>
     </row>
     <row r="4" spans="1:177" ht="14.25" customHeight="1">
-      <c r="A4" s="160" t="s">
+      <c r="A4" s="161" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="161"/>
-      <c r="C4" s="161"/>
-      <c r="D4" s="161"/>
-      <c r="E4" s="161"/>
-      <c r="F4" s="161"/>
-      <c r="G4" s="161"/>
-      <c r="H4" s="161"/>
-      <c r="I4" s="161"/>
-      <c r="J4" s="162"/>
-      <c r="K4" s="178" t="s">
+      <c r="B4" s="162"/>
+      <c r="C4" s="162"/>
+      <c r="D4" s="162"/>
+      <c r="E4" s="162"/>
+      <c r="F4" s="162"/>
+      <c r="G4" s="162"/>
+      <c r="H4" s="162"/>
+      <c r="I4" s="162"/>
+      <c r="J4" s="163"/>
+      <c r="K4" s="179" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="179"/>
-      <c r="M4" s="179"/>
-      <c r="N4" s="179"/>
-      <c r="O4" s="179"/>
-      <c r="P4" s="180"/>
-      <c r="Q4" s="175" t="s">
+      <c r="L4" s="180"/>
+      <c r="M4" s="180"/>
+      <c r="N4" s="180"/>
+      <c r="O4" s="180"/>
+      <c r="P4" s="181"/>
+      <c r="Q4" s="176" t="s">
         <v>27</v>
       </c>
-      <c r="R4" s="176"/>
-      <c r="S4" s="176"/>
-      <c r="T4" s="176"/>
-      <c r="U4" s="176"/>
-      <c r="V4" s="176"/>
-      <c r="W4" s="176"/>
-      <c r="X4" s="176"/>
-      <c r="Y4" s="176"/>
-      <c r="Z4" s="176"/>
-      <c r="AA4" s="177"/>
-      <c r="AB4" s="169" t="s">
+      <c r="R4" s="177"/>
+      <c r="S4" s="177"/>
+      <c r="T4" s="177"/>
+      <c r="U4" s="177"/>
+      <c r="V4" s="177"/>
+      <c r="W4" s="177"/>
+      <c r="X4" s="177"/>
+      <c r="Y4" s="177"/>
+      <c r="Z4" s="177"/>
+      <c r="AA4" s="178"/>
+      <c r="AB4" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="AC4" s="170"/>
-      <c r="AD4" s="170"/>
-      <c r="AE4" s="170"/>
-      <c r="AF4" s="170"/>
-      <c r="AG4" s="171"/>
+      <c r="AC4" s="171"/>
+      <c r="AD4" s="171"/>
+      <c r="AE4" s="171"/>
+      <c r="AF4" s="171"/>
+      <c r="AG4" s="172"/>
     </row>
     <row r="5" spans="1:177" s="3" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A5" s="163" t="s">
+      <c r="A5" s="164" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="164"/>
-      <c r="C5" s="164"/>
-      <c r="D5" s="164"/>
-      <c r="E5" s="165"/>
+      <c r="B5" s="165"/>
+      <c r="C5" s="165"/>
+      <c r="D5" s="165"/>
+      <c r="E5" s="166"/>
       <c r="F5" s="10" t="s">
         <v>12</v>
       </c>
@@ -17039,19 +17046,19 @@
         <v>22</v>
       </c>
       <c r="J5" s="9"/>
-      <c r="K5" s="181"/>
-      <c r="L5" s="182"/>
-      <c r="M5" s="182"/>
-      <c r="N5" s="182"/>
-      <c r="O5" s="182"/>
-      <c r="P5" s="183"/>
-      <c r="Q5" s="163" t="s">
+      <c r="K5" s="182"/>
+      <c r="L5" s="183"/>
+      <c r="M5" s="183"/>
+      <c r="N5" s="183"/>
+      <c r="O5" s="183"/>
+      <c r="P5" s="184"/>
+      <c r="Q5" s="164" t="s">
         <v>28</v>
       </c>
-      <c r="R5" s="164"/>
-      <c r="S5" s="164"/>
-      <c r="T5" s="164"/>
-      <c r="U5" s="165"/>
+      <c r="R5" s="165"/>
+      <c r="S5" s="165"/>
+      <c r="T5" s="165"/>
+      <c r="U5" s="166"/>
       <c r="V5" s="7" t="s">
         <v>29</v>
       </c>
@@ -17062,12 +17069,12 @@
       <c r="AA5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="AB5" s="172"/>
-      <c r="AC5" s="173"/>
-      <c r="AD5" s="173"/>
-      <c r="AE5" s="173"/>
-      <c r="AF5" s="173"/>
-      <c r="AG5" s="174"/>
+      <c r="AB5" s="173"/>
+      <c r="AC5" s="174"/>
+      <c r="AD5" s="174"/>
+      <c r="AE5" s="174"/>
+      <c r="AF5" s="174"/>
+      <c r="AG5" s="175"/>
       <c r="AH5" s="2"/>
       <c r="AI5" s="6"/>
       <c r="AJ5" s="6"/>
@@ -18768,8 +18775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M54"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -18816,7 +18823,7 @@
       <c r="E3" s="98"/>
       <c r="F3" s="98"/>
       <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
+      <c r="H3" s="99"/>
       <c r="I3" s="98" t="s">
         <v>207</v>
       </c>
@@ -19030,7 +19037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
@@ -19370,6 +19377,7 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -19377,7 +19385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="G3" sqref="G3:AC3"/>
     </sheetView>
   </sheetViews>
@@ -20641,7 +20649,7 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J37"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -21031,8 +21039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:L34"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -21543,8 +21551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:J36"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -21954,7 +21962,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
@@ -22393,7 +22401,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G30"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -22638,7 +22646,7 @@
   <dimension ref="A1:J29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J29"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>

--- a/詳細設計書.xlsx
+++ b/詳細設計書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" tabRatio="774" firstSheet="12" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" tabRatio="774" firstSheet="11" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="32" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="433">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -4064,6 +4064,109 @@
     </rPh>
     <rPh sb="20" eb="22">
       <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>未入力項目が1つでもあった場合、その項目の下に、赤字で「〇〇が未入力です。」とテキスト表示する。</t>
+    <rPh sb="0" eb="3">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ミニュウリョク</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>データベース接続エラーのとき完了画面で、赤字で「エラーが発生したため、登録できません」と表示する。</t>
+    <rPh sb="6" eb="8">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>データベース接続エラーのとき完了画面で、赤字で「エラーが発生したため、削除できません」と表示する。</t>
+    <rPh sb="6" eb="8">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>データベース接続エラーのとき完了画面で、赤字で「エラーが発生したため、更新できません」と表示する。</t>
+    <rPh sb="6" eb="8">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>アカジ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -4529,7 +4632,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
@@ -4849,6 +4952,16 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="ハイパーリンク" xfId="6" builtinId="8"/>
@@ -6059,15 +6172,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6076,7 +6189,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4267200" y="5699760"/>
+          <a:off x="4274820" y="5692140"/>
           <a:ext cx="1219200" cy="335280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10910,8 +11023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35:P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -10941,26 +11054,26 @@
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="B5" s="95" t="s">
+      <c r="B5" s="194"/>
+      <c r="C5" s="194"/>
+      <c r="D5" s="186"/>
+      <c r="E5" s="186"/>
+      <c r="F5" s="186"/>
+      <c r="G5" s="186"/>
+      <c r="H5" s="186"/>
+      <c r="I5" s="186"/>
+      <c r="J5" s="186"/>
+      <c r="K5" s="186"/>
+      <c r="L5" s="186"/>
+      <c r="M5" s="186"/>
+      <c r="N5" s="186"/>
+      <c r="O5" s="186"/>
+      <c r="P5" s="187"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="B6" s="95" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="63"/>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="B6" s="64"/>
       <c r="C6" s="65"/>
       <c r="D6" s="65"/>
       <c r="E6" s="68"/>
@@ -11737,21 +11850,21 @@
       <c r="P34" s="66"/>
     </row>
     <row r="35" spans="2:16">
-      <c r="B35" s="67"/>
-      <c r="C35" s="68"/>
-      <c r="D35" s="68"/>
-      <c r="E35" s="68"/>
-      <c r="F35" s="68"/>
-      <c r="G35" s="68"/>
-      <c r="H35" s="68"/>
-      <c r="I35" s="68"/>
-      <c r="J35" s="68"/>
-      <c r="K35" s="68"/>
-      <c r="L35" s="68"/>
-      <c r="M35" s="68"/>
-      <c r="N35" s="68"/>
-      <c r="O35" s="68"/>
-      <c r="P35" s="69"/>
+      <c r="B35" s="188"/>
+      <c r="C35" s="189"/>
+      <c r="D35" s="189"/>
+      <c r="E35" s="189"/>
+      <c r="F35" s="189"/>
+      <c r="G35" s="189"/>
+      <c r="H35" s="189"/>
+      <c r="I35" s="189"/>
+      <c r="J35" s="189"/>
+      <c r="K35" s="189"/>
+      <c r="L35" s="189"/>
+      <c r="M35" s="189"/>
+      <c r="N35" s="189"/>
+      <c r="O35" s="189"/>
+      <c r="P35" s="190"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -11772,8 +11885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38:J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -11798,20 +11911,20 @@
       <c r="B5" s="94"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="194"/>
+      <c r="C7" s="186"/>
+      <c r="D7" s="186"/>
+      <c r="E7" s="186"/>
+      <c r="F7" s="186"/>
+      <c r="G7" s="186"/>
+      <c r="H7" s="186"/>
+      <c r="I7" s="186"/>
+      <c r="J7" s="187"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8" s="95" t="s">
         <v>180</v>
       </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="63"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="B8" s="64"/>
       <c r="C8" s="65"/>
       <c r="D8" s="65"/>
       <c r="E8" s="65"/>
@@ -12177,15 +12290,15 @@
       <c r="J37" s="66"/>
     </row>
     <row r="38" spans="2:10">
-      <c r="B38" s="67"/>
-      <c r="C38" s="68"/>
-      <c r="D38" s="68"/>
-      <c r="E38" s="68"/>
-      <c r="F38" s="68"/>
-      <c r="G38" s="68"/>
-      <c r="H38" s="68"/>
-      <c r="I38" s="68"/>
-      <c r="J38" s="69"/>
+      <c r="B38" s="188"/>
+      <c r="C38" s="189"/>
+      <c r="D38" s="189"/>
+      <c r="E38" s="189"/>
+      <c r="F38" s="189"/>
+      <c r="G38" s="189"/>
+      <c r="H38" s="189"/>
+      <c r="I38" s="189"/>
+      <c r="J38" s="190"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>
@@ -12202,7 +12315,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="B29" sqref="B29:H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -12224,18 +12337,18 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="B5" s="95" t="s">
+      <c r="B5" s="194"/>
+      <c r="C5" s="186"/>
+      <c r="D5" s="186"/>
+      <c r="E5" s="186"/>
+      <c r="F5" s="186"/>
+      <c r="G5" s="186"/>
+      <c r="H5" s="187"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" s="95" t="s">
         <v>182</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="63"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="B6" s="64"/>
       <c r="C6" s="65"/>
       <c r="D6" s="65"/>
       <c r="E6" s="65"/>
@@ -12444,13 +12557,13 @@
       <c r="H28" s="66"/>
     </row>
     <row r="29" spans="2:8">
-      <c r="B29" s="67"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="69"/>
+      <c r="B29" s="188"/>
+      <c r="C29" s="189"/>
+      <c r="D29" s="189"/>
+      <c r="E29" s="189"/>
+      <c r="F29" s="189"/>
+      <c r="G29" s="189"/>
+      <c r="H29" s="190"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12467,7 +12580,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="B28" sqref="B28:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -12489,17 +12602,17 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="B5" s="95" t="s">
+      <c r="B5" s="194"/>
+      <c r="C5" s="186"/>
+      <c r="D5" s="186"/>
+      <c r="E5" s="186"/>
+      <c r="F5" s="186"/>
+      <c r="G5" s="187"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" s="95" t="s">
         <v>185</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="63"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="B6" s="64"/>
       <c r="C6" s="65"/>
       <c r="D6" s="65"/>
       <c r="E6" s="65"/>
@@ -12677,12 +12790,12 @@
       <c r="G27" s="66"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="67"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="69"/>
+      <c r="B28" s="188"/>
+      <c r="C28" s="189"/>
+      <c r="D28" s="189"/>
+      <c r="E28" s="189"/>
+      <c r="F28" s="189"/>
+      <c r="G28" s="190"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -12699,7 +12812,7 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="O34" sqref="O34:O36"/>
+      <selection activeCell="B37" sqref="B37:J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -12721,20 +12834,20 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="194"/>
+      <c r="C6" s="186"/>
+      <c r="D6" s="186"/>
+      <c r="E6" s="186"/>
+      <c r="F6" s="186"/>
+      <c r="G6" s="186"/>
+      <c r="H6" s="186"/>
+      <c r="I6" s="186"/>
+      <c r="J6" s="187"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7" s="95" t="s">
         <v>188</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="63"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="B7" s="64"/>
       <c r="C7" s="65"/>
       <c r="D7" s="65"/>
       <c r="E7" s="65"/>
@@ -13075,15 +13188,15 @@
       <c r="J36" s="66"/>
     </row>
     <row r="37" spans="2:10">
-      <c r="B37" s="67"/>
-      <c r="C37" s="68"/>
-      <c r="D37" s="68"/>
-      <c r="E37" s="68"/>
-      <c r="F37" s="68"/>
-      <c r="G37" s="68"/>
-      <c r="H37" s="68"/>
-      <c r="I37" s="68"/>
-      <c r="J37" s="69"/>
+      <c r="B37" s="188"/>
+      <c r="C37" s="189"/>
+      <c r="D37" s="189"/>
+      <c r="E37" s="189"/>
+      <c r="F37" s="189"/>
+      <c r="G37" s="189"/>
+      <c r="H37" s="189"/>
+      <c r="I37" s="189"/>
+      <c r="J37" s="190"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>
@@ -13096,8 +13209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -13119,22 +13232,22 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="B5" s="95" t="s">
+      <c r="B5" s="194"/>
+      <c r="C5" s="186"/>
+      <c r="D5" s="186"/>
+      <c r="E5" s="186"/>
+      <c r="F5" s="186"/>
+      <c r="G5" s="186"/>
+      <c r="H5" s="186"/>
+      <c r="I5" s="186"/>
+      <c r="J5" s="186"/>
+      <c r="K5" s="186"/>
+      <c r="L5" s="187"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="B6" s="95" t="s">
         <v>191</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="63"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="B6" s="64"/>
       <c r="C6" s="65"/>
       <c r="D6" s="65"/>
       <c r="E6" s="65"/>
@@ -13147,9 +13260,7 @@
       <c r="L6" s="66"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="B7" s="64" t="s">
-        <v>192</v>
-      </c>
+      <c r="B7" s="64"/>
       <c r="C7" s="65"/>
       <c r="D7" s="65"/>
       <c r="E7" s="65"/>
@@ -13163,7 +13274,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="B8" s="64" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C8" s="65"/>
       <c r="D8" s="65"/>
@@ -13177,7 +13288,9 @@
       <c r="L8" s="66"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="B9" s="64"/>
+      <c r="B9" s="64" t="s">
+        <v>193</v>
+      </c>
       <c r="C9" s="65"/>
       <c r="D9" s="65"/>
       <c r="E9" s="65"/>
@@ -13602,17 +13715,17 @@
       <c r="L37" s="66"/>
     </row>
     <row r="38" spans="2:12">
-      <c r="B38" s="67"/>
-      <c r="C38" s="68"/>
-      <c r="D38" s="68"/>
-      <c r="E38" s="68"/>
-      <c r="F38" s="68"/>
-      <c r="G38" s="68"/>
-      <c r="H38" s="68"/>
-      <c r="I38" s="68"/>
-      <c r="J38" s="68"/>
-      <c r="K38" s="68"/>
-      <c r="L38" s="69"/>
+      <c r="B38" s="188"/>
+      <c r="C38" s="189"/>
+      <c r="D38" s="189"/>
+      <c r="E38" s="189"/>
+      <c r="F38" s="189"/>
+      <c r="G38" s="189"/>
+      <c r="H38" s="189"/>
+      <c r="I38" s="189"/>
+      <c r="J38" s="189"/>
+      <c r="K38" s="189"/>
+      <c r="L38" s="190"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>
@@ -13628,8 +13741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -13651,17 +13764,17 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="B5" s="95" t="s">
+      <c r="B5" s="194"/>
+      <c r="C5" s="186"/>
+      <c r="D5" s="186"/>
+      <c r="E5" s="186"/>
+      <c r="F5" s="186"/>
+      <c r="G5" s="187"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" s="95" t="s">
         <v>203</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="63"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="B6" s="64"/>
       <c r="C6" s="65"/>
       <c r="D6" s="65"/>
       <c r="E6" s="65"/>
@@ -13839,12 +13952,12 @@
       <c r="G27" s="66"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="67"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="69"/>
+      <c r="B28" s="188"/>
+      <c r="C28" s="189"/>
+      <c r="D28" s="189"/>
+      <c r="E28" s="189"/>
+      <c r="F28" s="189"/>
+      <c r="G28" s="190"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>
@@ -13857,7 +13970,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
@@ -15303,8 +15416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D186"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B189" sqref="B189"/>
+    <sheetView topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="B181" sqref="B181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -15898,7 +16011,7 @@
     <row r="69" spans="1:4">
       <c r="A69" s="70"/>
       <c r="B69" s="111" t="s">
-        <v>293</v>
+        <v>429</v>
       </c>
       <c r="C69" s="70"/>
       <c r="D69" s="70"/>
@@ -15958,14 +16071,22 @@
       <c r="D77" s="70"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="107" t="s">
-        <v>303</v>
-      </c>
+      <c r="A78" s="70"/>
       <c r="B78" s="70" t="s">
-        <v>304</v>
+        <v>430</v>
       </c>
       <c r="C78" s="70"/>
       <c r="D78" s="70"/>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="107" t="s">
+        <v>303</v>
+      </c>
+      <c r="B79" s="70" t="s">
+        <v>304</v>
+      </c>
+      <c r="C79" s="70"/>
+      <c r="D79" s="70"/>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="157" t="s">
@@ -16357,6 +16478,14 @@
       <c r="C127" s="70"/>
       <c r="D127" s="70"/>
     </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="70"/>
+      <c r="B128" s="70" t="s">
+        <v>431</v>
+      </c>
+      <c r="C128" s="70"/>
+      <c r="D128" s="70"/>
+    </row>
     <row r="131" spans="1:4">
       <c r="A131" s="157" t="s">
         <v>20</v>
@@ -16752,6 +16881,14 @@
       </c>
       <c r="C177" s="70"/>
       <c r="D177" s="70"/>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="70"/>
+      <c r="B178" s="70" t="s">
+        <v>432</v>
+      </c>
+      <c r="C178" s="70"/>
+      <c r="D178" s="70"/>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="106" t="s">
@@ -16843,7 +16980,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FU42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
@@ -19037,8 +19174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -20648,8 +20785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -20671,15 +20808,15 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="B6" s="61"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="63"/>
+      <c r="B6" s="185"/>
+      <c r="C6" s="186"/>
+      <c r="D6" s="186"/>
+      <c r="E6" s="186"/>
+      <c r="F6" s="186"/>
+      <c r="G6" s="186"/>
+      <c r="H6" s="186"/>
+      <c r="I6" s="186"/>
+      <c r="J6" s="187"/>
     </row>
     <row r="7" spans="1:10">
       <c r="B7" s="64"/>
@@ -21018,15 +21155,15 @@
       <c r="J36" s="66"/>
     </row>
     <row r="37" spans="2:10">
-      <c r="B37" s="67"/>
-      <c r="C37" s="68"/>
-      <c r="D37" s="68"/>
-      <c r="E37" s="68"/>
-      <c r="F37" s="68"/>
-      <c r="G37" s="68"/>
-      <c r="H37" s="68"/>
-      <c r="I37" s="68"/>
-      <c r="J37" s="69"/>
+      <c r="B37" s="188"/>
+      <c r="C37" s="189"/>
+      <c r="D37" s="189"/>
+      <c r="E37" s="189"/>
+      <c r="F37" s="189"/>
+      <c r="G37" s="189"/>
+      <c r="H37" s="189"/>
+      <c r="I37" s="189"/>
+      <c r="J37" s="190"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>
@@ -21552,7 +21689,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -21574,20 +21711,20 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="B5" s="95" t="s">
+      <c r="B5" s="191"/>
+      <c r="C5" s="192"/>
+      <c r="D5" s="186"/>
+      <c r="E5" s="186"/>
+      <c r="F5" s="186"/>
+      <c r="G5" s="186"/>
+      <c r="H5" s="186"/>
+      <c r="I5" s="186"/>
+      <c r="J5" s="187"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="63"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="B6" s="64"/>
       <c r="C6" s="65"/>
       <c r="D6" s="65"/>
       <c r="E6" s="65"/>
@@ -21941,15 +22078,15 @@
       <c r="J35" s="66"/>
     </row>
     <row r="36" spans="2:10">
-      <c r="B36" s="67"/>
-      <c r="C36" s="68"/>
-      <c r="D36" s="68"/>
-      <c r="E36" s="68"/>
-      <c r="F36" s="68"/>
-      <c r="G36" s="68"/>
-      <c r="H36" s="68"/>
-      <c r="I36" s="68"/>
-      <c r="J36" s="69"/>
+      <c r="B36" s="188"/>
+      <c r="C36" s="189"/>
+      <c r="D36" s="189"/>
+      <c r="E36" s="189"/>
+      <c r="F36" s="189"/>
+      <c r="G36" s="189"/>
+      <c r="H36" s="189"/>
+      <c r="I36" s="189"/>
+      <c r="J36" s="190"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>
@@ -21962,8 +22099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36:J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -21985,20 +22122,20 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="B5" s="95" t="s">
+      <c r="B5" s="193"/>
+      <c r="C5" s="186"/>
+      <c r="D5" s="186"/>
+      <c r="E5" s="186"/>
+      <c r="F5" s="186"/>
+      <c r="G5" s="186"/>
+      <c r="H5" s="186"/>
+      <c r="I5" s="186"/>
+      <c r="J5" s="187"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" s="95" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="63"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="B6" s="64"/>
       <c r="C6" s="65"/>
       <c r="D6" s="65"/>
       <c r="E6" s="65"/>
@@ -22376,15 +22513,15 @@
       <c r="J35" s="66"/>
     </row>
     <row r="36" spans="2:10">
-      <c r="B36" s="67"/>
-      <c r="C36" s="68"/>
-      <c r="D36" s="68"/>
-      <c r="E36" s="68"/>
-      <c r="F36" s="68"/>
-      <c r="G36" s="68"/>
-      <c r="H36" s="68"/>
-      <c r="I36" s="68"/>
-      <c r="J36" s="69"/>
+      <c r="B36" s="188"/>
+      <c r="C36" s="189"/>
+      <c r="D36" s="189"/>
+      <c r="E36" s="189"/>
+      <c r="F36" s="189"/>
+      <c r="G36" s="189"/>
+      <c r="H36" s="189"/>
+      <c r="I36" s="189"/>
+      <c r="J36" s="190"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>
@@ -22401,7 +22538,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="B30" sqref="B30:G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -22423,17 +22560,17 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="B5" s="95" t="s">
+      <c r="B5" s="194"/>
+      <c r="C5" s="186"/>
+      <c r="D5" s="186"/>
+      <c r="E5" s="186"/>
+      <c r="F5" s="186"/>
+      <c r="G5" s="187"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" s="95" t="s">
         <v>122</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="63"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="B6" s="64"/>
       <c r="C6" s="65"/>
       <c r="D6" s="65"/>
       <c r="E6" s="65"/>
@@ -22627,12 +22764,12 @@
       <c r="G29" s="66"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="67"/>
-      <c r="C30" s="68"/>
-      <c r="D30" s="68"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="69"/>
+      <c r="B30" s="188"/>
+      <c r="C30" s="189"/>
+      <c r="D30" s="189"/>
+      <c r="E30" s="189"/>
+      <c r="F30" s="189"/>
+      <c r="G30" s="190"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>
@@ -22645,8 +22782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -22668,15 +22805,15 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="B5" s="61"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="63"/>
+      <c r="B5" s="185"/>
+      <c r="C5" s="186"/>
+      <c r="D5" s="186"/>
+      <c r="E5" s="186"/>
+      <c r="F5" s="186"/>
+      <c r="G5" s="186"/>
+      <c r="H5" s="186"/>
+      <c r="I5" s="186"/>
+      <c r="J5" s="187"/>
     </row>
     <row r="6" spans="1:10">
       <c r="B6" s="72" t="s">
@@ -22952,15 +23089,15 @@
       <c r="J28" s="66"/>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="67"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="68"/>
-      <c r="I29" s="68"/>
-      <c r="J29" s="69"/>
+      <c r="B29" s="188"/>
+      <c r="C29" s="189"/>
+      <c r="D29" s="189"/>
+      <c r="E29" s="189"/>
+      <c r="F29" s="189"/>
+      <c r="G29" s="189"/>
+      <c r="H29" s="189"/>
+      <c r="I29" s="189"/>
+      <c r="J29" s="190"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>
